--- a/Data/customers.xlsx
+++ b/Data/customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danw5\Documents\AnywhereHack\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1BDC9B-DE35-4E26-B07F-03F6BE6344BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858153C9-2210-488E-B262-2BFA136F922F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42360" yWindow="735" windowWidth="14355" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>OrderId</t>
   </si>
@@ -28,18 +28,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Delivery Status</t>
-  </si>
-  <si>
     <t>Date Delivered</t>
   </si>
   <si>
-    <t>danw5050@gmail.com</t>
-  </si>
-  <si>
-    <t>39 Redford Place, Thornhill</t>
-  </si>
-  <si>
     <t>Customer Email</t>
   </si>
   <si>
@@ -74,6 +65,27 @@
   </si>
   <si>
     <t>sabrinaa555@gmail.com</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect GPS location (43.81237411472222,-79.46511077861112) </t>
+  </si>
+  <si>
+    <t>03/06/2020 00:49:43</t>
+  </si>
+  <si>
+    <t>200 University Ave, Waterloo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>danwsuper@gmail.com</t>
+  </si>
+  <si>
+    <t>19 Glen Place, Thornhill</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -589,6 +601,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,36 +985,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1002</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1006,19 +1022,19 @@
         <v>2048</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,19 +1042,19 @@
         <v>9555</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1046,19 +1062,19 @@
         <v>10384</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
